--- a/biology/Médecine/BioAlliance_Pharma/BioAlliance_Pharma.xlsx
+++ b/biology/Médecine/BioAlliance_Pharma/BioAlliance_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 BioAlliance Pharma est un groupe biopharmaceutique français spécialisé dans le développement et la commercialisation de produits destinés à maîtriser la résistance aux médicaments. 
@@ -514,10 +526,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">BioAlliance Pharma est cotée en bourse sur Euronext en décembre 2005.
-En avril 2014, BioAlliance annonce sa fusion avec l'entreprise danoise Topotarget[3] pour créer ONXEO.
+En avril 2014, BioAlliance annonce sa fusion avec l'entreprise danoise Topotarget pour créer ONXEO.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b Sirene,  (base de données)
